--- a/inst/extdata/Med_calc_noconvfactorcol.xlsx
+++ b/inst/extdata/Med_calc_noconvfactorcol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheej\Documents\Sheeja_WinLap\repos\packDAMipd\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67736A47-7FFE-4C2A-B707-75F4FE52C313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5EC3D7-5B1D-4E9C-AB10-581F18FE5191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="900" windowWidth="19395" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="2" r:id="rId1"/>
@@ -500,8 +500,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
